--- a/Testing/Manual-User Testing-Case.xlsx
+++ b/Testing/Manual-User Testing-Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/Desktop/JORDAN CHOI/Education/Ngee Ann Polytechnic/Academic/Semester 1.2/Interactive Development (IMGD 1_ID P01)/Assignments &amp; Tests/Assignment 3/ID_Team1PK4.0_Website/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317B1DAC-EE31-F540-B352-97964CD2B9C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CB9E7-8C17-FD41-86CD-CACA1F0BF1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
   <si>
     <t>Test #</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Selected product are removed from cart</t>
+  </si>
+  <si>
+    <t>Click on Clear Cart button</t>
+  </si>
+  <si>
+    <t>Cart items are all removed</t>
   </si>
 </sst>
 </file>
@@ -625,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:Z1050"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1982,11 +1988,21 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="6">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -29576,10 +29592,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -29852,92 +29868,92 @@
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>6</v>
@@ -29946,16 +29962,16 @@
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>6</v>
@@ -29964,16 +29980,16 @@
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>6</v>
@@ -29982,16 +29998,16 @@
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>6</v>
@@ -30000,16 +30016,16 @@
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>6</v>
@@ -30018,62 +30034,62 @@
     </row>
     <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="11" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>6</v>
@@ -30082,16 +30098,16 @@
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>6</v>
@@ -30100,34 +30116,34 @@
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
-        <v>28</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>6</v>
@@ -30135,35 +30151,45 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>6</v>
@@ -30171,35 +30197,35 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
-        <v>31</v>
+      <c r="A38" s="15">
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>6</v>
@@ -30208,67 +30234,49 @@
     </row>
     <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="15">
-        <v>7</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="16" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
-        <v>35</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="F42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
